--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2254370.257328298</v>
+        <v>-2256074.60946501</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>228.5727417928316</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38.08917920508113</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>28.14326276152196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,67 +896,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.4093399017307</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>30.24678523090109</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>135.9068933088734</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>194.568500413723</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>180.1159031720508</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.3683016290818</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372056</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447327</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F11" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437242</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192737</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U11" t="n">
         <v>230.7368224059507</v>
@@ -1430,13 +1430,13 @@
         <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>234.2268273863827</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521941</v>
+        <v>155.2219496967809</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>365.8181632297786</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S12" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T12" t="n">
         <v>195.0682397085608</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.43304410116897</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5111589513636</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021384</v>
+        <v>202.9965309021383</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>212.8851323883068</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103161</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>344.8531163447326</v>
       </c>
       <c r="D14" t="n">
-        <v>230.2612045648564</v>
+        <v>70.03465909691772</v>
       </c>
       <c r="E14" t="n">
         <v>361.5105946459868</v>
@@ -1622,10 +1622,10 @@
         <v>392.5197736437241</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.94929161302581</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521941</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>365.8181632297786</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.41346197070183</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.1231296267667</v>
@@ -1819,19 +1819,19 @@
         <v>202.9965309021383</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>231.717867897553</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>188.4917663896704</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>98.0207103960927</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D19" t="n">
-        <v>6.747869322778229</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E19" t="n">
         <v>64.62269286072457</v>
@@ -2014,7 +2014,7 @@
         <v>63.60977823708664</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H19" t="n">
         <v>70.99113916484792</v>
@@ -2053,7 +2053,7 @@
         <v>123.7316352671971</v>
       </c>
       <c r="T19" t="n">
-        <v>141.6050365425687</v>
+        <v>132.8865348864449</v>
       </c>
       <c r="U19" t="n">
         <v>204.4499389353288</v>
@@ -2068,7 +2068,7 @@
         <v>143.8983856031925</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7733835662502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.4616219851625</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
       </c>
       <c r="H20" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.5577972534562</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686449</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T20" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179393</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638384</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S22" t="n">
-        <v>26.05839458944956</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T22" t="n">
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
-        <v>170.3263735379834</v>
+        <v>24.83448831560999</v>
       </c>
       <c r="W22" t="n">
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
         <v>283.4616219851629</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T23" t="n">
         <v>130.9397223597039</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609268</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278322</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072456</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708663</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484791</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638376</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2533,7 +2533,7 @@
         <v>204.4499389353288</v>
       </c>
       <c r="V25" t="n">
-        <v>91.6386915479797</v>
+        <v>88.44426655269633</v>
       </c>
       <c r="W25" t="n">
         <v>204.7117285507464</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.9225718776359</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C26" t="n">
         <v>283.4616219851629</v>
@@ -2561,19 +2561,19 @@
         <v>272.8717718348383</v>
       </c>
       <c r="E26" t="n">
-        <v>300.1191002864171</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F26" t="n">
         <v>325.0647759558668</v>
       </c>
       <c r="G26" t="n">
-        <v>331.1282792841544</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H26" t="n">
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345609</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686434</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T26" t="n">
         <v>130.9397223597039</v>
@@ -2612,16 +2612,16 @@
         <v>169.345328046381</v>
       </c>
       <c r="V26" t="n">
-        <v>245.9409886842902</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315683</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X26" t="n">
         <v>287.9198308926244</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.4266688702089</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609262</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278316</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236768</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708657</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.250472230146727</v>
+        <v>51.05620215113411</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484785</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I28" t="n">
-        <v>41.7607615363837</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.731635267197</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425686</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U28" t="n">
         <v>204.4499389353288</v>
       </c>
       <c r="V28" t="n">
-        <v>170.3263735379833</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7117285507463</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X28" t="n">
         <v>143.8983856031925</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7733835662501</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686443</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T29" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
         <v>169.345328046381</v>
@@ -2950,7 +2950,7 @@
         <v>98.0207103960927</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278323</v>
+        <v>63.67530135760695</v>
       </c>
       <c r="D31" t="n">
         <v>66.80420323236775</v>
@@ -2962,7 +2962,7 @@
         <v>63.60977823708664</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H31" t="n">
         <v>70.99113916484792</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>119.8447865873926</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
         <v>204.4499389353288</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.8199291298098</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>270.3948577707338</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.016457538591</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363283</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450563005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S32" t="n">
-        <v>155.168912892709</v>
+        <v>69.45824726838318</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U32" t="n">
         <v>163.2426852985549</v>
@@ -3089,7 +3089,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837422</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
         <v>281.8171881447983</v>
@@ -3126,7 +3126,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I33" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S33" t="n">
         <v>148.1971745240616</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826654</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495708</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D34" t="n">
-        <v>60.7015604845416</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289842</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926049</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G34" t="n">
-        <v>79.0170218439678</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702177</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855762</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S34" t="n">
-        <v>117.6289925193709</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
         <v>135.5023937947425</v>
@@ -3244,16 +3244,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
-        <v>164.2237307901572</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W34" t="n">
-        <v>198.6090858029202</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.670740818424</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.8199291298098</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C35" t="n">
         <v>277.3589792373368</v>
@@ -3272,19 +3272,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
-        <v>294.016457538591</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363283</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H35" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
-        <v>163.2426852985548</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V35" t="n">
-        <v>239.8383459364641</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837422</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
         <v>281.8171881447983</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.3240261223828</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838229</v>
+        <v>45.86296740838226</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.65304841868488</v>
+        <v>21.65304841868483</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240616</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826651</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495705</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454157</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289839</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926046</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396777</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702174</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855762</v>
+        <v>35.65811878855765</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S37" t="n">
-        <v>117.6289925193709</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
         <v>135.5023937947425</v>
       </c>
       <c r="U37" t="n">
-        <v>198.3472961875026</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901572</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029202</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.670740818424</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396781</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702181</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855765</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C41" t="n">
         <v>277.3589792373368</v>
@@ -3746,19 +3746,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E41" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F41" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G41" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H41" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T41" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U41" t="n">
         <v>163.2426852985549</v>
@@ -3800,7 +3800,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W41" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X41" t="n">
         <v>281.8171881447983</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396778</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855762</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S43" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T43" t="n">
         <v>135.5023937947425</v>
@@ -3955,16 +3955,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V43" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W43" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X43" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C44" t="n">
         <v>277.3589792373368</v>
@@ -3983,19 +3983,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F44" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H44" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4037,7 +4037,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W44" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X44" t="n">
         <v>281.8171881447983</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396784</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S46" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T46" t="n">
         <v>135.5023937947425</v>
@@ -4192,16 +4192,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V46" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W46" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X46" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>485.167420504237</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
-        <v>478.2219197550335</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>462.764609133685</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.1241970916042</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>171.1241970916042</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>171.1241970916042</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>171.1241970916042</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>171.1241970916042</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1910343172051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>339.3395341116723</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.3395341116723</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4525,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>470.2141014732327</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.2295980564601</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>360.2295980564601</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="V6" t="n">
-        <v>360.2295980564601</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="W6" t="n">
-        <v>360.2295980564601</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="X6" t="n">
-        <v>360.2295980564601</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="Y6" t="n">
-        <v>360.2295980564601</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>772.0302844130649</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>772.0302844130649</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>772.0302844130649</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>772.0302844130649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W8" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>411.6785506544679</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>237.2255213733409</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>411.6785506544679</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1844.120271175294</v>
+        <v>1575.106984731739</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.783790018999</v>
+        <v>1226.770503575444</v>
       </c>
       <c r="D11" t="n">
-        <v>1158.144127196364</v>
+        <v>1226.770503575444</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.144127196364</v>
+        <v>861.6082867613156</v>
       </c>
       <c r="F11" t="n">
-        <v>767.7842581908731</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="G11" t="n">
-        <v>371.2996383487275</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="H11" t="n">
-        <v>73.46830195908775</v>
+        <v>173.4170813661845</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J11" t="n">
-        <v>260.205444140428</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075375</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L11" t="n">
-        <v>1210.096241442435</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M11" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P11" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q11" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R11" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089302</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807208</v>
+        <v>3343.030901807209</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427459</v>
+        <v>3109.963404427461</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868005</v>
+        <v>2799.526552868006</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.933797932264</v>
+        <v>2467.383933382008</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.0940754553</v>
+        <v>2310.594085203441</v>
       </c>
       <c r="Y11" t="n">
-        <v>2210.0940754553</v>
+        <v>1941.080789011745</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9597691519541</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L12" t="n">
-        <v>542.2925146982047</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M12" t="n">
-        <v>1179.798592714221</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.884573044239</v>
+        <v>1473.939381140297</v>
       </c>
       <c r="O12" t="n">
         <v>2006.542958788865</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.7203092494077</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="C13" t="n">
-        <v>304.9495576320653</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="D13" t="n">
-        <v>304.9495576320653</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="E13" t="n">
-        <v>177.6624998337882</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="F13" t="n">
-        <v>177.6624998337882</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="G13" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="H13" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814341</v>
+        <v>75.45401965814362</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164732</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432033</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459851</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327546</v>
+        <v>847.5115364327551</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>1207.639325881398</v>
+        <v>910.332994031941</v>
       </c>
       <c r="T13" t="n">
-        <v>1002.592324970147</v>
+        <v>705.2859931206903</v>
       </c>
       <c r="U13" t="n">
-        <v>1002.592324970147</v>
+        <v>705.2859931206903</v>
       </c>
       <c r="V13" t="n">
-        <v>768.5338725483759</v>
+        <v>490.2505058597743</v>
       </c>
       <c r="W13" t="n">
-        <v>499.7427382955314</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="X13" t="n">
-        <v>499.7427382955314</v>
+        <v>221.4593716069298</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.7427382955314</v>
+        <v>221.4593716069298</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1806.398564095185</v>
+        <v>2042.33368446976</v>
       </c>
       <c r="C14" t="n">
-        <v>1458.062082938889</v>
+        <v>1693.997203313465</v>
       </c>
       <c r="D14" t="n">
-        <v>1225.475007620852</v>
+        <v>1623.255123417589</v>
       </c>
       <c r="E14" t="n">
-        <v>860.3127908067243</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F14" t="n">
-        <v>469.9529218012333</v>
+        <v>867.7330375979698</v>
       </c>
       <c r="G14" t="n">
-        <v>73.46830195908775</v>
+        <v>471.2484177558241</v>
       </c>
       <c r="H14" t="n">
-        <v>73.46830195908775</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
-        <v>260.2054441404279</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075374</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L14" t="n">
-        <v>1210.096241442435</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
         <v>3537.304858089303</v>
       </c>
       <c r="T14" t="n">
-        <v>3537.304858089303</v>
+        <v>3343.030901807208</v>
       </c>
       <c r="U14" t="n">
-        <v>3537.304858089303</v>
+        <v>3109.96340442746</v>
       </c>
       <c r="V14" t="n">
-        <v>3226.868006529848</v>
+        <v>3109.96340442746</v>
       </c>
       <c r="W14" t="n">
-        <v>2894.72538704385</v>
+        <v>2777.820784941462</v>
       </c>
       <c r="X14" t="n">
-        <v>2541.885664566886</v>
+        <v>2777.820784941462</v>
       </c>
       <c r="Y14" t="n">
-        <v>2172.37236837519</v>
+        <v>2408.307488749766</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2003.454396615705</v>
+        <v>987.4417967439537</v>
       </c>
       <c r="C15" t="n">
-        <v>1829.001367334578</v>
+        <v>812.9887674628267</v>
       </c>
       <c r="D15" t="n">
-        <v>1680.066957673326</v>
+        <v>664.0543578015754</v>
       </c>
       <c r="E15" t="n">
-        <v>1520.829502667871</v>
+        <v>504.8169027961198</v>
       </c>
       <c r="F15" t="n">
-        <v>1374.294944694756</v>
+        <v>358.2823448230048</v>
       </c>
       <c r="G15" t="n">
-        <v>1236.841308458483</v>
+        <v>220.8287085867323</v>
       </c>
       <c r="H15" t="n">
-        <v>1135.807131536275</v>
+        <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>1089.480901830839</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
-        <v>1207.006884753549</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K15" t="n">
-        <v>1534.498351946415</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L15" t="n">
-        <v>2036.255440831295</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M15" t="n">
-        <v>2212.713505734811</v>
+        <v>1264.423847230377</v>
       </c>
       <c r="N15" t="n">
-        <v>2683.949991690518</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O15" t="n">
-        <v>3230.532073519107</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P15" t="n">
-        <v>3652.209314036684</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
-        <v>3673.415097954387</v>
+        <v>2657.402498082636</v>
       </c>
       <c r="R15" t="n">
-        <v>3651.543331874908</v>
+        <v>2635.530732003157</v>
       </c>
       <c r="S15" t="n">
-        <v>3501.849216194038</v>
+        <v>2485.836616322286</v>
       </c>
       <c r="T15" t="n">
-        <v>3304.810590225794</v>
+        <v>2288.797990354043</v>
       </c>
       <c r="U15" t="n">
-        <v>3076.670997566204</v>
+        <v>2060.658397694453</v>
       </c>
       <c r="V15" t="n">
-        <v>2841.518889334461</v>
+        <v>1825.50628946271</v>
       </c>
       <c r="W15" t="n">
-        <v>2587.28153260626</v>
+        <v>1571.268932734508</v>
       </c>
       <c r="X15" t="n">
-        <v>2379.430032400727</v>
+        <v>1363.417432528975</v>
       </c>
       <c r="Y15" t="n">
-        <v>2171.669733635773</v>
+        <v>1155.657133764022</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="C16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="D16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="E16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="F16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="G16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
         <v>75.45401965814359</v>
@@ -5440,13 +5440,13 @@
         <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N16" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327551</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
@@ -5458,28 +5458,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="S16" t="n">
-        <v>910.3329940319406</v>
+        <v>1020.646265652341</v>
       </c>
       <c r="T16" t="n">
-        <v>705.2859931206895</v>
+        <v>815.5992647410902</v>
       </c>
       <c r="U16" t="n">
-        <v>705.2859931206895</v>
+        <v>547.072564443213</v>
       </c>
       <c r="V16" t="n">
-        <v>471.2275406989187</v>
+        <v>547.072564443213</v>
       </c>
       <c r="W16" t="n">
-        <v>280.831817072989</v>
+        <v>547.072564443213</v>
       </c>
       <c r="X16" t="n">
-        <v>73.46830195908775</v>
+        <v>339.7090493293117</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.46830195908775</v>
+        <v>139.5425059698977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
         <v>1588.825123454954</v>
@@ -5501,28 +5501,28 @@
         <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053351</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274014</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404283</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N17" t="n">
         <v>2461.184977863254</v>
@@ -5531,7 +5531,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
         <v>3673.415097954388</v>
@@ -5546,19 +5546,19 @@
         <v>3467.054122735632</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V17" t="n">
         <v>3047.572994724854</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X17" t="n">
         <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
         <v>190.9942848817977</v>
@@ -5598,19 +5598,19 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L18" t="n">
-        <v>653.1108991091194</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M18" t="n">
-        <v>1179.798592714221</v>
+        <v>1313.129552442287</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.884573044239</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.6823481344565</v>
+        <v>556.6438483590757</v>
       </c>
       <c r="C19" t="n">
-        <v>409.6823481344565</v>
+        <v>470.3453116794967</v>
       </c>
       <c r="D19" t="n">
-        <v>402.8663185154886</v>
+        <v>402.8663185154888</v>
       </c>
       <c r="E19" t="n">
-        <v>337.5908711814234</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F19" t="n">
-        <v>273.3385699318409</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H19" t="n">
         <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L19" t="n">
         <v>581.4353955911254</v>
@@ -5701,22 +5701,22 @@
         <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1377.541459841117</v>
+        <v>1386.348027170535</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007451</v>
+        <v>1179.832937336869</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498921</v>
+        <v>1007.78609537931</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612599</v>
+        <v>801.0065715906774</v>
       </c>
       <c r="X19" t="n">
-        <v>646.8480996115704</v>
+        <v>655.6546669409876</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.6931667163683</v>
+        <v>655.6546669409876</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E20" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053345</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274008</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J20" t="n">
         <v>260.2054441404283</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L20" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M20" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N20" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P20" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q20" t="n">
         <v>3673.415097954388</v>
@@ -5780,10 +5780,10 @@
         <v>3599.316468553515</v>
       </c>
       <c r="T20" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
         <v>3047.572994724853</v>
@@ -5792,10 +5792,10 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K21" t="n">
-        <v>440.4388212830187</v>
+        <v>400.9597691519541</v>
       </c>
       <c r="L21" t="n">
-        <v>942.1959101678985</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M21" t="n">
-        <v>1579.701988183914</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N21" t="n">
-        <v>1775.239017913814</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O21" t="n">
         <v>2321.821099742403</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.6438483590761</v>
+        <v>556.6438483590756</v>
       </c>
       <c r="C22" t="n">
-        <v>470.345311679497</v>
+        <v>470.3453116794965</v>
       </c>
       <c r="D22" t="n">
-        <v>402.8663185154891</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="E22" t="n">
-        <v>337.5908711814238</v>
+        <v>337.5908711814235</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318412</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K22" t="n">
         <v>317.1043329484212</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911253</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M22" t="n">
         <v>866.121791309881</v>
@@ -5926,34 +5926,34 @@
         <v>1405.066081491645</v>
       </c>
       <c r="P22" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q22" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S22" t="n">
-        <v>1667.538350512776</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T22" t="n">
-        <v>1524.502960065737</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U22" t="n">
-        <v>1317.987870232072</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V22" t="n">
-        <v>1145.941028274513</v>
+        <v>1145.941028274512</v>
       </c>
       <c r="W22" t="n">
-        <v>939.1615044858797</v>
+        <v>939.161504485879</v>
       </c>
       <c r="X22" t="n">
-        <v>793.8095998361903</v>
+        <v>793.8095998361896</v>
       </c>
       <c r="Y22" t="n">
-        <v>655.6546669409879</v>
+        <v>655.6546669409875</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>347.2251968274007</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J23" t="n">
         <v>260.2054441404283</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M23" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O23" t="n">
         <v>3004.568888469954</v>
       </c>
       <c r="P23" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
         <v>3673.415097954388</v>
@@ -6017,10 +6017,10 @@
         <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V23" t="n">
         <v>3047.572994724853</v>
@@ -6063,19 +6063,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K24" t="n">
-        <v>400.9597691519541</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L24" t="n">
-        <v>902.7168580368339</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1264.423847230377</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N24" t="n">
         <v>1459.960876960276</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>489.1648551950675</v>
+        <v>492.391547109493</v>
       </c>
       <c r="C25" t="n">
-        <v>402.8663185154885</v>
+        <v>406.093010429914</v>
       </c>
       <c r="D25" t="n">
-        <v>402.8663185154885</v>
+        <v>338.6140172659062</v>
       </c>
       <c r="E25" t="n">
-        <v>337.5908711814233</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="F25" t="n">
         <v>273.3385699318409</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3591107482106</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H25" t="n">
         <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
         <v>866.1217913098812</v>
@@ -6175,22 +6175,22 @@
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841118</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.026370007453</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>1078.462035110504</v>
+        <v>1081.688727024929</v>
       </c>
       <c r="W25" t="n">
-        <v>871.6825113218711</v>
+        <v>874.9092032362967</v>
       </c>
       <c r="X25" t="n">
-        <v>726.3306066721816</v>
+        <v>729.5572985866072</v>
       </c>
       <c r="Y25" t="n">
-        <v>588.1756737769794</v>
+        <v>591.4023656914048</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053351</v>
+        <v>681.6982062053341</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274014</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6251,7 +6251,7 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T26" t="n">
         <v>3467.054122735632</v>
@@ -6266,10 +6266,10 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J27" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K27" t="n">
-        <v>400.9597691519541</v>
+        <v>355.8135667668627</v>
       </c>
       <c r="L27" t="n">
-        <v>902.7168580368339</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.22293605285</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.884573044239</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O27" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P27" t="n">
         <v>2428.220199306442</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344571</v>
+        <v>457.9840092906444</v>
       </c>
       <c r="C28" t="n">
-        <v>323.3838114548782</v>
+        <v>371.6854726110654</v>
       </c>
       <c r="D28" t="n">
-        <v>255.9048182908704</v>
+        <v>304.2064794470575</v>
       </c>
       <c r="E28" t="n">
-        <v>255.9048182908704</v>
+        <v>238.9310321129926</v>
       </c>
       <c r="F28" t="n">
-        <v>191.652517041288</v>
+        <v>238.9310321129926</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3591107482105</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695763</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484215</v>
+        <v>317.104332948421</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911257</v>
+        <v>581.4353955911251</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098816</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O28" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P28" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q28" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.576850288156</v>
+        <v>1568.878511444344</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841118</v>
+        <v>1425.843120997305</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.026370007452</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V28" t="n">
-        <v>998.9795280498931</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612605</v>
+        <v>840.5016654174478</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115711</v>
+        <v>695.1497607677585</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163689</v>
+        <v>556.9948278725562</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053341</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274014</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019728</v>
@@ -6494,19 +6494,19 @@
         <v>3467.054122735632</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>190.9942848817977</v>
       </c>
       <c r="K30" t="n">
-        <v>256.6651674322113</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L30" t="n">
-        <v>758.4222563170911</v>
+        <v>653.1108991091194</v>
       </c>
       <c r="M30" t="n">
-        <v>1395.928334333107</v>
+        <v>1290.616977125135</v>
       </c>
       <c r="N30" t="n">
-        <v>1591.465364063007</v>
+        <v>1960.702957455153</v>
       </c>
       <c r="O30" t="n">
-        <v>2138.047445891596</v>
+        <v>2117.36134319978</v>
       </c>
       <c r="P30" t="n">
-        <v>2559.724686409173</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>556.6438483590755</v>
+        <v>534.6637978993015</v>
       </c>
       <c r="C31" t="n">
         <v>470.3453116794964</v>
@@ -6607,7 +6607,7 @@
         <v>337.5908711814234</v>
       </c>
       <c r="F31" t="n">
-        <v>273.338569931841</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G31" t="n">
         <v>187.3591107482106</v>
@@ -6622,22 +6622,22 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484216</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911258</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098811</v>
+        <v>866.1217913098817</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O31" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q31" t="n">
         <v>1693.85996120919</v>
@@ -6649,22 +6649,22 @@
         <v>1645.558300053002</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.502960065736</v>
+        <v>1502.522909605963</v>
       </c>
       <c r="U31" t="n">
-        <v>1317.987870232071</v>
+        <v>1296.007819772297</v>
       </c>
       <c r="V31" t="n">
-        <v>1145.941028274512</v>
+        <v>1123.960977814738</v>
       </c>
       <c r="W31" t="n">
-        <v>939.161504485879</v>
+        <v>917.181454026105</v>
       </c>
       <c r="X31" t="n">
-        <v>793.8095998361896</v>
+        <v>771.8295493764156</v>
       </c>
       <c r="Y31" t="n">
-        <v>655.6546669409873</v>
+        <v>633.6746164812133</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1835.662347125763</v>
+        <v>1831.999994919983</v>
       </c>
       <c r="C32" t="n">
-        <v>1555.501762037544</v>
+        <v>1551.839409831764</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077206</v>
+        <v>1282.375643077207</v>
       </c>
       <c r="E32" t="n">
-        <v>985.389322331155</v>
+        <v>985.3893223311551</v>
       </c>
       <c r="F32" t="n">
-        <v>663.2053493937401</v>
+        <v>663.2053493937402</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8966256196711</v>
+        <v>334.8966256196712</v>
       </c>
       <c r="H32" t="n">
         <v>105.241185298108</v>
@@ -6698,13 +6698,13 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404293</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075388</v>
       </c>
       <c r="L32" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M32" t="n">
         <v>1837.877529641655</v>
@@ -6722,28 +6722,28 @@
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3673.415097954388</v>
+        <v>3671.97824767724</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.678822305187</v>
+        <v>3601.818401951601</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.580762091169</v>
+        <v>3475.720341737583</v>
       </c>
       <c r="U32" t="n">
-        <v>3225.689160779497</v>
+        <v>3310.828740425911</v>
       </c>
       <c r="V32" t="n">
-        <v>2983.428205288119</v>
+        <v>3068.567784934533</v>
       </c>
       <c r="W32" t="n">
-        <v>2719.461481870198</v>
+        <v>2804.601061516611</v>
       </c>
       <c r="X32" t="n">
-        <v>2434.797655461311</v>
+        <v>2519.937235107725</v>
       </c>
       <c r="Y32" t="n">
-        <v>2133.460255337692</v>
+        <v>2218.599834984105</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L33" t="n">
-        <v>653.1108991091194</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1290.616977125135</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.154006855035</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O33" t="n">
-        <v>2032.736088683624</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P33" t="n">
-        <v>2454.413329201201</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.402498082636</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320219</v>
+        <v>513.4938491320216</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563076</v>
+        <v>433.3595980563073</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961646</v>
+        <v>372.0448904961643</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659642</v>
+        <v>312.9337287659638</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202465</v>
+        <v>254.8457131202462</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.0305395404807</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.4866037657112</v>
       </c>
       <c r="I34" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944647</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891164</v>
+        <v>329.187565589117</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521685</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912721</v>
+        <v>890.2882565912726</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.607515114363</v>
+        <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
         <v>1441.315779413732</v>
       </c>
       <c r="P34" t="n">
-        <v>1652.5818723178</v>
+        <v>1652.581872317801</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771972</v>
+        <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
         <v>1700.055516219649</v>
@@ -6895,13 +6895,13 @@
         <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.518648447231</v>
+        <v>877.5186484472312</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014062</v>
+        <v>738.3310294014066</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100688</v>
+        <v>606.3403821100687</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>71.58127575382301</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3184179351634</v>
+        <v>258.3184179351636</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9337917022729</v>
+        <v>566.4695076443005</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.744931179198</v>
       </c>
       <c r="M35" t="n">
-        <v>1835.990503436389</v>
+        <v>1743.526219378417</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600017</v>
+        <v>2366.833667600016</v>
       </c>
       <c r="O35" t="n">
         <v>2910.217578206717</v>
@@ -6977,7 +6977,7 @@
         <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
         <v>2127.910876926647</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C36" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D36" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E36" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F36" t="n">
         <v>356.3953186177401</v>
@@ -7008,31 +7008,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H36" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I36" t="n">
         <v>71.58127575382301</v>
       </c>
       <c r="J36" t="n">
-        <v>189.1072586765329</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693991</v>
+        <v>137.2521583042366</v>
       </c>
       <c r="L36" t="n">
-        <v>651.2238729038543</v>
+        <v>639.0092471891164</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.72995091987</v>
+        <v>1276.515325205132</v>
       </c>
       <c r="N36" t="n">
-        <v>1666.050365613503</v>
+        <v>1472.052354935032</v>
       </c>
       <c r="O36" t="n">
-        <v>2212.632447442092</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P36" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q36" t="n">
         <v>2655.515471877372</v>
@@ -7053,7 +7053,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X36" t="n">
         <v>1361.530406323711</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267569</v>
+        <v>511.606822926757</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510427</v>
+        <v>431.4725718510428</v>
       </c>
       <c r="D37" t="n">
         <v>370.1578642908997</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606994</v>
+        <v>311.0467025606993</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149817</v>
+        <v>252.9586869149816</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352163</v>
+        <v>173.1435133352161</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604469</v>
+        <v>107.5995775604466</v>
       </c>
       <c r="I37" t="n">
         <v>71.58127575382301</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892005</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838522</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469043</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860078</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N37" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
         <v>1650.694846112536</v>
@@ -7120,25 +7120,25 @@
         <v>1698.168490014384</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U37" t="n">
-        <v>1242.129416780428</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
         <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419659</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961414</v>
+        <v>736.4440031961415</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.453355904804</v>
+        <v>604.4533559048041</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258906</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884757</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7181,16 +7181,16 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M38" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O38" t="n">
-        <v>3002.681862264689</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q38" t="n">
         <v>3579.063787691152</v>
@@ -7199,16 +7199,16 @@
         <v>3579.063787691152</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T38" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W38" t="n">
         <v>2713.912103459154</v>
@@ -7248,7 +7248,7 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
         <v>189.107258676533</v>
@@ -7260,16 +7260,16 @@
         <v>1018.355814754279</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.813879657795</v>
+        <v>1262.536821025112</v>
       </c>
       <c r="N39" t="n">
-        <v>1666.050365613502</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.632447442091</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P39" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7324,19 +7324,19 @@
         <v>173.1435133352162</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5995775604467</v>
+        <v>107.5995775604468</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469042</v>
       </c>
       <c r="M40" t="n">
         <v>888.4012303860081</v>
@@ -7354,7 +7354,7 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
         <v>1579.351325853404</v>
@@ -7369,13 +7369,13 @@
         <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419663</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X40" t="n">
         <v>736.4440031961417</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048043</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>661.3183231884752</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144071</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J41" t="n">
         <v>258.3184179351636</v>
@@ -7424,22 +7424,22 @@
         <v>2459.297951657989</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206718</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.308791370919</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U41" t="n">
         <v>3220.139782368454</v>
@@ -7485,28 +7485,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J42" t="n">
-        <v>189.107258676533</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="K42" t="n">
-        <v>254.7781412269466</v>
+        <v>137.2521583042366</v>
       </c>
       <c r="L42" t="n">
-        <v>756.5352301118264</v>
+        <v>639.0092471891164</v>
       </c>
       <c r="M42" t="n">
-        <v>932.9932950153423</v>
+        <v>1276.515325205132</v>
       </c>
       <c r="N42" t="n">
-        <v>1603.07927534536</v>
+        <v>1472.052354935032</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.661357173949</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P42" t="n">
-        <v>2571.338597691526</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F43" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H43" t="n">
         <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469045</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
         <v>888.4012303860081</v>
@@ -7582,7 +7582,7 @@
         <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208467</v>
       </c>
       <c r="P43" t="n">
         <v>1650.694846112536</v>
@@ -7591,7 +7591,7 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R43" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S43" t="n">
         <v>1579.351325853404</v>
@@ -7603,16 +7603,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419667</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961416</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>333.0095994144058</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771919</v>
       </c>
       <c r="K44" t="n">
-        <v>658.9337917022731</v>
+        <v>566.4695076443014</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.744931179199</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600017</v>
       </c>
       <c r="O44" t="n">
-        <v>3002.681862264689</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S44" t="n">
         <v>3511.129443894143</v>
@@ -7679,7 +7679,7 @@
         <v>3385.031383680125</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
         <v>2977.878826877075</v>
@@ -7688,7 +7688,7 @@
         <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050266</v>
       </c>
       <c r="Y44" t="n">
         <v>2127.910876926647</v>
@@ -7722,10 +7722,10 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J45" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="K45" t="n">
         <v>399.0727429466894</v>
@@ -7734,16 +7734,16 @@
         <v>900.8298318315692</v>
       </c>
       <c r="M45" t="n">
-        <v>1077.287896735085</v>
+        <v>1470.513335883603</v>
       </c>
       <c r="N45" t="n">
-        <v>1747.373877065103</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267571</v>
       </c>
       <c r="C46" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510429</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606994</v>
       </c>
       <c r="F46" t="n">
         <v>252.9586869149818</v>
@@ -7798,19 +7798,19 @@
         <v>173.1435133352163</v>
       </c>
       <c r="H46" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J46" t="n">
         <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M46" t="n">
         <v>888.4012303860081</v>
@@ -7828,28 +7828,28 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S46" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V46" t="n">
         <v>1076.246860426734</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419663</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048044</v>
+        <v>604.4533559048041</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.37792127706544</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.775352032116558</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>379.7426180847895</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928331</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>68.4070114821383</v>
       </c>
       <c r="N15" t="n">
-        <v>278.4842992179874</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>353.7673017187731</v>
+        <v>117.6046935143709</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928331</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.37792127706544</v>
       </c>
       <c r="K21" t="n">
-        <v>185.629953384654</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>325.2381206720537</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928331</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.800181262746</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>187.1201255454818</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>68.4070114821383</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>100.1498983178297</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>115.2773810722111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>206.5250066087106</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.24447248056599</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.661214550451</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>68.40701148213836</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.6195807714467</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7471458459399</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>343.9486576867612</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>7.37792127706544</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>183.6195807714479</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>379.7426180847898</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>356.1152667676095</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>228.4004414462601</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>68.4070114821383</v>
       </c>
       <c r="N39" t="n">
-        <v>278.4842992179874</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>287.4019145375221</v>
+        <v>287.4019145375211</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.37792127706544</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>379.7426180847898</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.60716188701235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684988</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>228.4004414462601</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>397.1974132813309</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>101.6400704786576</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459869</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302588</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>94.59436590475543</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>194.0893755554132</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C13" t="n">
-        <v>113.394001571184</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919375</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F13" t="n">
         <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267668</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>18.83273550924628</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627623</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>104.0020616295516</v>
+        <v>264.2286070974903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257433</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302581</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192736</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059507</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244176</v>
+        <v>66.96917155371574</v>
       </c>
       <c r="I16" t="n">
         <v>103.1522558959534</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.717867897553</v>
       </c>
       <c r="W16" t="n">
-        <v>77.61145652064562</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278323</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.05633390958953</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.718501656123751</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="20">
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462669</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.67324067774757</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>145.4918852223734</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236774</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>78.6876819900037</v>
+        <v>81.88210698528707</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>64.6226928607245</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G28" t="n">
-        <v>80.86919236164714</v>
+        <v>34.06346244065958</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.81864454462663</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.76024995517628</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
-        <v>21.76024995517605</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1234492.795189043</v>
+        <v>1234492.795189044</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>70912.1584224157</v>
+        <v>70912.15842241571</v>
       </c>
       <c r="F2" t="n">
-        <v>70912.15842241568</v>
+        <v>70912.15842241573</v>
       </c>
       <c r="G2" t="n">
-        <v>81754.99646189452</v>
+        <v>81754.99646189461</v>
       </c>
       <c r="H2" t="n">
-        <v>81754.99646189463</v>
+        <v>81754.99646189464</v>
       </c>
       <c r="I2" t="n">
         <v>81754.99646189464</v>
@@ -26338,7 +26338,7 @@
         <v>81754.99646189452</v>
       </c>
       <c r="K2" t="n">
-        <v>81754.99646189457</v>
+        <v>81754.99646189454</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642831</v>
@@ -26347,10 +26347,10 @@
         <v>82104.17698642831</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642831</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146749</v>
+        <v>690849.420014675</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>49113.19548765572</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.042748597397395e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012621</v>
+        <v>79395.76294012619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591664</v>
+        <v>53995.30968591662</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914782</v>
+        <v>162917.5281914783</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101996</v>
+        <v>16335.82034101998</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>85777.46094060854</v>
+        <v>85777.46094060859</v>
       </c>
       <c r="F4" t="n">
-        <v>85777.46094060858</v>
+        <v>85777.46094060861</v>
       </c>
       <c r="G4" t="n">
         <v>147816.3730406428</v>
@@ -26448,13 +26448,13 @@
         <v>149824.4466330967</v>
       </c>
       <c r="M4" t="n">
+        <v>152485.3204137545</v>
+      </c>
+      <c r="N4" t="n">
         <v>152485.3204137546</v>
       </c>
-      <c r="N4" t="n">
-        <v>152485.3204137545</v>
-      </c>
       <c r="O4" t="n">
-        <v>152485.3204137545</v>
+        <v>152485.3204137546</v>
       </c>
       <c r="P4" t="n">
         <v>152485.3204137546</v>
@@ -26476,22 +26476,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.55973007936</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="F5" t="n">
         <v>70367.55973007937</v>
       </c>
       <c r="G5" t="n">
+        <v>75528.68126939404</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75528.68126939404</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75528.68126939404</v>
+      </c>
+      <c r="J5" t="n">
         <v>75528.68126939403</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75528.68126939403</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75528.68126939403</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
         <v>75528.68126939403</v>
@@ -26500,16 +26500,16 @@
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655981</v>
+        <v>74607.58442655983</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655984</v>
+        <v>74607.58442655983</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393012.2120141519</v>
+        <v>-393012.212014152</v>
       </c>
       <c r="C6" t="n">
         <v>-312242.7804826042</v>
@@ -26528,34 +26528,34 @@
         <v>-312242.7804826042</v>
       </c>
       <c r="E6" t="n">
-        <v>-776082.2822629471</v>
+        <v>-776362.0827270476</v>
       </c>
       <c r="F6" t="n">
-        <v>-85232.86224827231</v>
+        <v>-85512.66271237258</v>
       </c>
       <c r="G6" t="n">
-        <v>-190703.253335798</v>
+        <v>-190711.9828489113</v>
       </c>
       <c r="H6" t="n">
-        <v>-141590.0578481421</v>
+        <v>-141598.7873612556</v>
       </c>
       <c r="I6" t="n">
-        <v>-141590.0578481423</v>
+        <v>-141598.7873612555</v>
       </c>
       <c r="J6" t="n">
-        <v>-220985.8207882686</v>
+        <v>-220994.5503013818</v>
       </c>
       <c r="K6" t="n">
-        <v>-141590.0578481422</v>
+        <v>-141598.7873612556</v>
       </c>
       <c r="L6" t="n">
-        <v>-197757.3036751461</v>
+        <v>-197757.303675146</v>
       </c>
       <c r="M6" t="n">
         <v>-307906.2560453643</v>
       </c>
       <c r="N6" t="n">
-        <v>-144988.7278538862</v>
+        <v>-144988.7278538861</v>
       </c>
       <c r="O6" t="n">
         <v>-161324.548194906</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
         <v>20.41977542627495</v>
@@ -26701,31 +26701,31 @@
         <v>81.8112697858446</v>
       </c>
       <c r="H2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K2" t="n">
         <v>81.8112697858446</v>
       </c>
       <c r="L2" t="n">
+        <v>87.91391253367073</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87.91391253367073</v>
+      </c>
+      <c r="N2" t="n">
+        <v>87.91391253367073</v>
+      </c>
+      <c r="O2" t="n">
         <v>87.91391253367075</v>
       </c>
-      <c r="M2" t="n">
-        <v>87.91391253367078</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.91391253367071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>87.91391253367071</v>
-      </c>
       <c r="P2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
         <v>587.8431257275768</v>
@@ -26765,10 +26765,10 @@
         <v>587.8431257275768</v>
       </c>
       <c r="L3" t="n">
+        <v>587.8431257275766</v>
+      </c>
+      <c r="M3" t="n">
         <v>587.8431257275768</v>
-      </c>
-      <c r="M3" t="n">
-        <v>587.8431257275764</v>
       </c>
       <c r="N3" t="n">
         <v>587.8431257275768</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885969</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="F4" t="n">
-        <v>918.3537744885969</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="G4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="H4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="J4" t="n">
         <v>918.353774488597</v>
@@ -26823,13 +26823,13 @@
         <v>894.7659469227876</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
-        <v>894.765946922788</v>
+        <v>894.7659469227877</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.7659469227877</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956966</v>
+        <v>61.39149435956965</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.553435746746744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>20.41977542627495</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.4941371073958</v>
+        <v>67.49413710739577</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109378</v>
+        <v>677.339485610938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451285</v>
+        <v>653.7516580451287</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956966</v>
+        <v>61.39149435956965</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.553435746746744e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>20.41977542627495</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109378</v>
+        <v>677.339485610938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>206.8877105131121</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9020603229356</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>99.2543379581295</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>223.5517203993977</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.8933976134044</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,13 +27670,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>221.0988676769354</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>11.53817225576537</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>31.37288166725179</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.90416641419455</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.076763935557</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="14">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584507</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584467</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367075</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D32" t="n">
-        <v>84.28818384994918</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376223</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.71066562432587</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376308</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367078</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367027</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
   </sheetData>
@@ -31753,34 +31753,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H11" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J11" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K11" t="n">
-        <v>300.6064321779668</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N11" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O11" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R11" t="n">
         <v>148.4466361667735</v>
@@ -31844,7 +31844,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M12" t="n">
         <v>320.3745035215293</v>
@@ -31853,7 +31853,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P12" t="n">
         <v>241.4482453578042</v>
@@ -31862,16 +31862,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R12" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S12" t="n">
-        <v>23.48599657977628</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I13" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K13" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L13" t="n">
         <v>157.5997783303081</v>
@@ -31929,28 +31929,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N13" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O13" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P13" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S13" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>24.20200366374891</v>
       </c>
       <c r="I32" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J32" t="n">
         <v>200.5726652953605</v>
@@ -33427,25 +33427,25 @@
         <v>372.9288605557973</v>
       </c>
       <c r="M32" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N32" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O32" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P32" t="n">
         <v>339.8294523961113</v>
       </c>
       <c r="Q32" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R32" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S32" t="n">
-        <v>53.85115669353632</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T32" t="n">
         <v>10.34485741858278</v>
@@ -33488,40 +33488,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H33" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I33" t="n">
-        <v>43.53366544303282</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J33" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K33" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L33" t="n">
         <v>274.5393767843744</v>
       </c>
       <c r="M33" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N33" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O33" t="n">
         <v>300.8370381258854</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q33" t="n">
         <v>161.4017578412773</v>
       </c>
       <c r="R33" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S33" t="n">
         <v>23.48599657977628</v>
@@ -33530,7 +33530,7 @@
         <v>5.096488986260781</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,22 +33570,22 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H34" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I34" t="n">
-        <v>31.87844360502991</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J34" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K34" t="n">
         <v>123.1579532262037</v>
       </c>
       <c r="L34" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M34" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N34" t="n">
         <v>162.2157923831525</v>
@@ -33597,16 +33597,16 @@
         <v>128.2076220439291</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R34" t="n">
         <v>47.66347704669825</v>
       </c>
       <c r="S34" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T34" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U34" t="n">
         <v>0.05782063531746662</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.363188445135984</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H35" t="n">
-        <v>24.2020036637489</v>
+        <v>24.20200366374891</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110511</v>
+        <v>91.10682253110515</v>
       </c>
       <c r="J35" t="n">
-        <v>200.5726652953604</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K35" t="n">
-        <v>300.6064321779667</v>
+        <v>300.6064321779668</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557971</v>
+        <v>372.9288605557973</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669841</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367268</v>
+        <v>421.669622236727</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354058</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P35" t="n">
-        <v>339.8294523961112</v>
+        <v>339.8294523961113</v>
       </c>
       <c r="Q35" t="n">
-        <v>255.1977662046787</v>
+        <v>255.1977662046788</v>
       </c>
       <c r="R35" t="n">
-        <v>148.4466361667734</v>
+        <v>148.4466361667735</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353628</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858277</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1890550756108787</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.264417289300825</v>
+        <v>1.264417289300826</v>
       </c>
       <c r="H36" t="n">
-        <v>12.2116090835106</v>
+        <v>12.21160908351061</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303279</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J36" t="n">
-        <v>119.4597053896012</v>
+        <v>119.4597053896013</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727565</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L36" t="n">
-        <v>274.5393767843743</v>
+        <v>274.5393767843744</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215291</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256562</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O36" t="n">
-        <v>300.8370381258853</v>
+        <v>300.8370381258854</v>
       </c>
       <c r="P36" t="n">
-        <v>241.448245357804</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.4017578412772</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395826</v>
+        <v>78.5047857339583</v>
       </c>
       <c r="S36" t="n">
-        <v>23.48599657977627</v>
+        <v>23.48599657977628</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260779</v>
+        <v>5.096488986260781</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031746</v>
+        <v>0.0831853479803175</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H37" t="n">
-        <v>9.424763556747051</v>
+        <v>9.424763556747056</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502989</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94518014398953</v>
+        <v>74.94518014398957</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262037</v>
       </c>
       <c r="L37" t="n">
-        <v>157.599778330308</v>
+        <v>157.5997783303081</v>
       </c>
       <c r="M37" t="n">
-        <v>166.1668691298459</v>
+        <v>166.166869129846</v>
       </c>
       <c r="N37" t="n">
         <v>162.2157923831525</v>
       </c>
       <c r="O37" t="n">
-        <v>149.8325396526616</v>
+        <v>149.8325396526617</v>
       </c>
       <c r="P37" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486404</v>
+        <v>88.76431198486409</v>
       </c>
       <c r="R37" t="n">
-        <v>47.66347704669823</v>
+        <v>47.66347704669825</v>
       </c>
       <c r="S37" t="n">
-        <v>18.47369298393055</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T37" t="n">
-        <v>4.52928309986821</v>
+        <v>4.529283099868213</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0578206353174666</v>
+        <v>0.05782063531746662</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,7 +35021,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>188.623375940748</v>
       </c>
       <c r="K11" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
         <v>554.8236601362605</v>
@@ -35425,10 +35425,10 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q11" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>330.7994618109761</v>
+        <v>66.3342247983976</v>
       </c>
       <c r="L12" t="n">
-        <v>142.7603490366168</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O12" t="n">
-        <v>158.240793681441</v>
+        <v>537.9834117662306</v>
       </c>
       <c r="P12" t="n">
-        <v>425.936606583411</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q12" t="n">
         <v>231.4972714911049</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591689</v>
+        <v>2.005775453591767</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3082368265958</v>
+        <v>121.3082368265959</v>
       </c>
       <c r="L13" t="n">
-        <v>205.6095790168991</v>
+        <v>205.6095790168992</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179614</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N13" t="n">
-        <v>226.767740188656</v>
+        <v>226.7677401886561</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350975</v>
+        <v>145.9059567350976</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.0220441594446</v>
+        <v>23.02204415944467</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.6233759407476</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K14" t="n">
         <v>404.661993704151</v>
@@ -35653,7 +35653,7 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325447</v>
       </c>
       <c r="N14" t="n">
         <v>629.6034830521203</v>
@@ -35732,10 +35732,10 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M15" t="n">
-        <v>178.240469599511</v>
+        <v>246.6474810816493</v>
       </c>
       <c r="N15" t="n">
-        <v>475.9964504603105</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581705</v>
@@ -35744,7 +35744,7 @@
         <v>425.936606583411</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.4199837552558</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944465</v>
+        <v>23.02204415944466</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>634.1225133325441</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6034830521203</v>
+        <v>629.603483052121</v>
       </c>
       <c r="O17" t="n">
         <v>548.8726369764647</v>
@@ -35966,22 +35966,22 @@
         <v>330.7994618109761</v>
       </c>
       <c r="L18" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M18" t="n">
-        <v>532.0077713182841</v>
+        <v>295.8451631138819</v>
       </c>
       <c r="N18" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O18" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P18" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M20" t="n">
-        <v>634.1225133325447</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N20" t="n">
         <v>629.6034830521203</v>
@@ -36136,7 +36136,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P20" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123258</v>
       </c>
       <c r="Q20" t="n">
         <v>245.207066990134</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>251.9641781830516</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L21" t="n">
-        <v>506.8253423079594</v>
+        <v>461.223117676554</v>
       </c>
       <c r="M21" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N21" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O21" t="n">
-        <v>552.1031129581705</v>
+        <v>158.240793681441</v>
       </c>
       <c r="P21" t="n">
         <v>107.4738379434739</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316134</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K22" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
         <v>267.0010733764688</v>
       </c>
       <c r="M22" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N22" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.2289373525459</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P22" t="n">
         <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901425</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M23" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325447</v>
       </c>
       <c r="N23" t="n">
         <v>629.6034830521203</v>
       </c>
       <c r="O23" t="n">
-        <v>548.8726369764654</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P23" t="n">
         <v>430.3951648123244</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K24" t="n">
         <v>330.7994618109761</v>
@@ -36443,10 +36443,10 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M24" t="n">
-        <v>365.3605951449927</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244614</v>
       </c>
       <c r="O24" t="n">
         <v>552.1031129581705</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316142</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36531,10 +36531,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901432</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K27" t="n">
-        <v>330.7994618109761</v>
+        <v>166.4841231162273</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079594</v>
@@ -36683,13 +36683,13 @@
         <v>643.9455333495109</v>
       </c>
       <c r="N27" t="n">
-        <v>312.7895323145342</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
         <v>158.240793681441</v>
       </c>
       <c r="P27" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q27" t="n">
         <v>231.4972714911049</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316147</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K28" t="n">
-        <v>182.6997311861656</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M28" t="n">
         <v>287.5620158775312</v>
@@ -36768,10 +36768,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901438</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K30" t="n">
-        <v>66.33422479839757</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079594</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M30" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>552.1031129581705</v>
+        <v>158.240793681441</v>
       </c>
       <c r="P30" t="n">
-        <v>425.936606583411</v>
+        <v>313.9988445521845</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.66445623582179</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>188.623375940748</v>
+        <v>188.623375940749</v>
       </c>
       <c r="K32" t="n">
         <v>404.661993704151</v>
       </c>
       <c r="L32" t="n">
-        <v>554.8236601362611</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M32" t="n">
-        <v>634.1225133325441</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N32" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521202</v>
       </c>
       <c r="O32" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P32" t="n">
         <v>430.3951648123244</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>330.7994618109761</v>
       </c>
       <c r="L33" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995109</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244614</v>
       </c>
       <c r="O33" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581704</v>
       </c>
       <c r="P33" t="n">
         <v>425.936606583411</v>
       </c>
       <c r="Q33" t="n">
-        <v>205.0395645267025</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098755</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
@@ -37233,19 +37233,19 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M34" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253572</v>
       </c>
       <c r="N34" t="n">
-        <v>294.2618772960519</v>
+        <v>294.2618772960518</v>
       </c>
       <c r="O34" t="n">
-        <v>262.3315801003722</v>
+        <v>262.3315801003721</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684046</v>
+        <v>90.51618126684041</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.6233759407479</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041509</v>
+        <v>311.2637269789262</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362603</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325439</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N35" t="n">
-        <v>536.205216326897</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764644</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123243</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q35" t="n">
-        <v>245.2070669901339</v>
+        <v>245.207066990134</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.7131140633433</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>330.799461810976</v>
+        <v>66.33422479839757</v>
       </c>
       <c r="L36" t="n">
-        <v>135.9849970045001</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M36" t="n">
-        <v>643.9455333495107</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>381.1317320137707</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O36" t="n">
-        <v>552.1031129581704</v>
+        <v>537.9834117662308</v>
       </c>
       <c r="P36" t="n">
-        <v>425.9366065834109</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.41998375525571</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
@@ -37470,16 +37470,16 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M37" t="n">
-        <v>293.6646586253572</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
         <v>262.3315801003721</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
         <v>90.51618126684043</v>
@@ -37549,7 +37549,7 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M38" t="n">
-        <v>634.1225133325441</v>
+        <v>540.7242466073211</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521203</v>
@@ -37558,7 +37558,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P38" t="n">
-        <v>336.9968980871018</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q38" t="n">
         <v>245.207066990134</v>
@@ -37628,10 +37628,10 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M39" t="n">
-        <v>178.240469599511</v>
+        <v>246.6474810816493</v>
       </c>
       <c r="N39" t="n">
-        <v>475.9964504603105</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O39" t="n">
         <v>552.1031129581705</v>
@@ -37640,7 +37640,7 @@
         <v>425.936606583411</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.4199837552558</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
@@ -37710,16 +37710,16 @@
         <v>293.6646586253573</v>
       </c>
       <c r="N40" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O40" t="n">
         <v>262.3315801003721</v>
       </c>
       <c r="P40" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>629.6034830521203</v>
       </c>
       <c r="O41" t="n">
-        <v>455.4743702512414</v>
+        <v>455.4743702512404</v>
       </c>
       <c r="P41" t="n">
         <v>430.3951648123244</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>66.33422479839757</v>
@@ -37865,19 +37865,19 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M42" t="n">
-        <v>178.240469599511</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O42" t="n">
-        <v>552.1031129581705</v>
+        <v>537.9834117662308</v>
       </c>
       <c r="P42" t="n">
         <v>425.936606583411</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.02714564226815</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
@@ -37947,16 +37947,16 @@
         <v>293.6646586253573</v>
       </c>
       <c r="N43" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960514</v>
       </c>
       <c r="O43" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P43" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.623375940748</v>
+        <v>95.2251092155241</v>
       </c>
       <c r="K44" t="n">
         <v>404.661993704151</v>
@@ -38032,7 +38032,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P44" t="n">
-        <v>336.9968980871018</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q44" t="n">
         <v>245.207066990134</v>
@@ -38102,19 +38102,19 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M45" t="n">
-        <v>178.240469599511</v>
+        <v>575.4378828808418</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O45" t="n">
-        <v>259.8808641600986</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P45" t="n">
         <v>425.936606583411</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339916</v>
@@ -38184,16 +38184,16 @@
         <v>293.6646586253573</v>
       </c>
       <c r="N46" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
